--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>52.12516558041144</v>
+        <v>90.8178001496325</v>
       </c>
       <c r="R2">
-        <v>52.12516558041144</v>
+        <v>363.27120059853</v>
       </c>
       <c r="S2">
-        <v>6.595167774080561E-05</v>
+        <v>7.331295060583315E-05</v>
       </c>
       <c r="T2">
-        <v>6.595167774080561E-05</v>
+        <v>3.464047339955064E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>201.019211634303</v>
+        <v>352.9581188386815</v>
       </c>
       <c r="R3">
-        <v>201.019211634303</v>
+        <v>2117.748713032089</v>
       </c>
       <c r="S3">
-        <v>0.000254340760701555</v>
+        <v>0.0002849265352135129</v>
       </c>
       <c r="T3">
-        <v>0.000254340760701555</v>
+        <v>0.0002019422895067161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>288.5026838289285</v>
+        <v>485.7876615144734</v>
       </c>
       <c r="R4">
-        <v>288.5026838289285</v>
+        <v>2914.725969086841</v>
       </c>
       <c r="S4">
-        <v>0.0003650297475197552</v>
+        <v>0.0003921535951636668</v>
       </c>
       <c r="T4">
-        <v>0.0003650297475197552</v>
+        <v>0.0002779396969337975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>287.5300920357789</v>
+        <v>480.7380634241205</v>
       </c>
       <c r="R5">
-        <v>287.5300920357789</v>
+        <v>2884.428380544723</v>
       </c>
       <c r="S5">
-        <v>0.0003637991699321175</v>
+        <v>0.0003880772914570431</v>
       </c>
       <c r="T5">
-        <v>0.0003637991699321175</v>
+        <v>0.0002750506079880331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>39.2014908494178</v>
+        <v>71.045508738546</v>
       </c>
       <c r="R6">
-        <v>39.2014908494178</v>
+        <v>426.273052431276</v>
       </c>
       <c r="S6">
-        <v>4.959992093399765E-05</v>
+        <v>5.735170709193166E-05</v>
       </c>
       <c r="T6">
-        <v>4.959992093399765E-05</v>
+        <v>4.064814471767027E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>93.940618014225</v>
+        <v>155.762895521889</v>
       </c>
       <c r="R7">
-        <v>93.940618014225</v>
+        <v>623.051582087556</v>
       </c>
       <c r="S7">
-        <v>0.0001188589292150769</v>
+        <v>0.0001257400801032726</v>
       </c>
       <c r="T7">
-        <v>0.0001188589292150769</v>
+        <v>5.941236662937178E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>401.5540567309162</v>
+        <v>476.3588820378034</v>
       </c>
       <c r="R8">
-        <v>401.5540567309162</v>
+        <v>2858.15329222682</v>
       </c>
       <c r="S8">
-        <v>0.0005080686737421683</v>
+        <v>0.0003845421837123049</v>
       </c>
       <c r="T8">
-        <v>0.0005080686737421683</v>
+        <v>0.0002725450928344852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>1548.581745761196</v>
+        <v>1851.341197641207</v>
       </c>
       <c r="R9">
-        <v>1548.581745761196</v>
+        <v>16662.07077877087</v>
       </c>
       <c r="S9">
-        <v>0.001959352322712189</v>
+        <v>0.001494500918912239</v>
       </c>
       <c r="T9">
-        <v>0.001959352322712189</v>
+        <v>0.00158884607049078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>2222.523838136241</v>
+        <v>2548.06069917484</v>
       </c>
       <c r="R10">
-        <v>2222.523838136241</v>
+        <v>22932.54629257356</v>
       </c>
       <c r="S10">
-        <v>0.00281206158890561</v>
+        <v>0.002056929895587496</v>
       </c>
       <c r="T10">
-        <v>0.00281206158890561</v>
+        <v>0.00218678017559059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>2215.031330904203</v>
+        <v>2521.574471837274</v>
       </c>
       <c r="R11">
-        <v>2215.031330904203</v>
+        <v>22694.17024653546</v>
       </c>
       <c r="S11">
-        <v>0.002802581649284588</v>
+        <v>0.002035548806491146</v>
       </c>
       <c r="T11">
-        <v>0.002802581649284588</v>
+        <v>0.002164049336844586</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>301.9945837140755</v>
+        <v>372.6489637575494</v>
       </c>
       <c r="R12">
-        <v>301.9945837140755</v>
+        <v>3353.840673817945</v>
       </c>
       <c r="S12">
-        <v>0.000382100454603913</v>
+        <v>0.0003008220307941766</v>
       </c>
       <c r="T12">
-        <v>0.000382100454603913</v>
+        <v>0.0003198123838506994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>723.6856868536719</v>
+        <v>817.0098664747107</v>
       </c>
       <c r="R13">
-        <v>723.6856868536719</v>
+        <v>4902.059198848264</v>
       </c>
       <c r="S13">
-        <v>0.0009156476468430282</v>
+        <v>0.0006595337465414391</v>
       </c>
       <c r="T13">
-        <v>0.0009156476468430282</v>
+        <v>0.0004674459494750627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>30056.2181201274</v>
+        <v>50281.36013413761</v>
       </c>
       <c r="R14">
-        <v>30056.2181201274</v>
+        <v>301688.1608048257</v>
       </c>
       <c r="S14">
-        <v>0.03802880987510827</v>
+        <v>0.04058978378505741</v>
       </c>
       <c r="T14">
-        <v>0.03802880987510827</v>
+        <v>0.02876809582510353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>115910.9463526998</v>
+        <v>195415.5931585544</v>
       </c>
       <c r="R15">
-        <v>115910.9463526998</v>
+        <v>1758740.338426989</v>
       </c>
       <c r="S15">
-        <v>0.1466570186466298</v>
+        <v>0.1577498431501113</v>
       </c>
       <c r="T15">
-        <v>0.1466570186466298</v>
+        <v>0.1677083066579965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>166355.33905456</v>
+        <v>268956.7939003709</v>
       </c>
       <c r="R16">
-        <v>166355.33905456</v>
+        <v>2420611.145103338</v>
       </c>
       <c r="S16">
-        <v>0.2104820884427433</v>
+        <v>0.2171162053455764</v>
       </c>
       <c r="T16">
-        <v>0.2104820884427433</v>
+        <v>0.2308223603865484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>165794.5268105844</v>
+        <v>266161.0791870067</v>
       </c>
       <c r="R17">
-        <v>165794.5268105844</v>
+        <v>2395449.712683061</v>
       </c>
       <c r="S17">
-        <v>0.2097725173943651</v>
+        <v>0.2148593559795803</v>
       </c>
       <c r="T17">
-        <v>0.2097725173943651</v>
+        <v>0.2284230401844153</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>22604.21710865632</v>
+        <v>39334.412471015</v>
       </c>
       <c r="R18">
-        <v>22604.21710865632</v>
+        <v>354009.7122391349</v>
       </c>
       <c r="S18">
-        <v>0.02860012099210562</v>
+        <v>0.03175282636053433</v>
       </c>
       <c r="T18">
-        <v>0.02860012099210562</v>
+        <v>0.03375732510531405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>54167.68798593865</v>
+        <v>86238.27302982566</v>
       </c>
       <c r="R19">
-        <v>54167.68798593865</v>
+        <v>517429.638178954</v>
       </c>
       <c r="S19">
-        <v>0.06853599143972131</v>
+        <v>0.06961611314688451</v>
       </c>
       <c r="T19">
-        <v>0.06853599143972131</v>
+        <v>0.04934056866590404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>10961.23888814103</v>
+        <v>15831.90599735854</v>
       </c>
       <c r="R20">
-        <v>10961.23888814103</v>
+        <v>94991.43598415121</v>
       </c>
       <c r="S20">
-        <v>0.01386877311066678</v>
+        <v>0.01278035517781958</v>
       </c>
       <c r="T20">
-        <v>0.01386877311066678</v>
+        <v>0.009058103989450748</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>42271.7045652401</v>
+        <v>61529.7854523194</v>
       </c>
       <c r="R21">
-        <v>42271.7045652401</v>
+        <v>553768.0690708746</v>
       </c>
       <c r="S21">
-        <v>0.05348452721441219</v>
+        <v>0.04967010998087534</v>
       </c>
       <c r="T21">
-        <v>0.05348452721441219</v>
+        <v>0.05280569457354274</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>60668.33173777223</v>
+        <v>84685.4314804155</v>
       </c>
       <c r="R22">
-        <v>60668.33173777223</v>
+        <v>762168.8833237394</v>
       </c>
       <c r="S22">
-        <v>0.07676096985570978</v>
+        <v>0.06836257699402655</v>
       </c>
       <c r="T22">
-        <v>0.07676096985570978</v>
+        <v>0.07267818336614942</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>60463.808435704</v>
+        <v>83805.15512314643</v>
       </c>
       <c r="R23">
-        <v>60463.808435704</v>
+        <v>754246.3961083178</v>
       </c>
       <c r="S23">
-        <v>0.0765021955236133</v>
+        <v>0.06765197117673501</v>
       </c>
       <c r="T23">
-        <v>0.0765021955236133</v>
+        <v>0.07192271828333546</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>8243.559539563797</v>
+        <v>12385.08105272275</v>
       </c>
       <c r="R24">
-        <v>8243.559539563797</v>
+        <v>111465.7294745047</v>
       </c>
       <c r="S24">
-        <v>0.01043021304846979</v>
+        <v>0.00999789505990558</v>
       </c>
       <c r="T24">
-        <v>0.01043021304846979</v>
+        <v>0.01062904416992398</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>19754.48027623123</v>
+        <v>27153.52624392878</v>
       </c>
       <c r="R25">
-        <v>19754.48027623123</v>
+        <v>162921.1574635727</v>
       </c>
       <c r="S25">
-        <v>0.0249944744080527</v>
+        <v>0.02191976820640265</v>
       </c>
       <c r="T25">
-        <v>0.0249944744080527</v>
+        <v>0.01553568246544818</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>114.7888812432143</v>
+        <v>139.30385849303</v>
       </c>
       <c r="R26">
-        <v>114.7888812432143</v>
+        <v>835.82315095818</v>
       </c>
       <c r="S26">
-        <v>0.00014523731905084</v>
+        <v>0.0001124534714568596</v>
       </c>
       <c r="T26">
-        <v>0.00014523731905084</v>
+        <v>7.970163772903443E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>442.6800405323997</v>
+        <v>541.3963755966259</v>
       </c>
       <c r="R27">
-        <v>442.6800405323997</v>
+        <v>4872.567380369634</v>
       </c>
       <c r="S27">
-        <v>0.0005601035709026356</v>
+        <v>0.0004370439019321823</v>
       </c>
       <c r="T27">
-        <v>0.0005601035709026356</v>
+        <v>0.0004646336963929847</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>635.3341988199414</v>
+        <v>745.1413219189939</v>
       </c>
       <c r="R28">
-        <v>635.3341988199414</v>
+        <v>6706.271897270946</v>
       </c>
       <c r="S28">
-        <v>0.0008038603977889745</v>
+        <v>0.0006015176412355928</v>
       </c>
       <c r="T28">
-        <v>0.0008038603977889745</v>
+        <v>0.000639490366659438</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>633.1923787873556</v>
+        <v>737.3958304331154</v>
       </c>
       <c r="R29">
-        <v>633.1923787873556</v>
+        <v>6636.562473898039</v>
       </c>
       <c r="S29">
-        <v>0.0008011504471730864</v>
+        <v>0.0005952650692311341</v>
       </c>
       <c r="T29">
-        <v>0.0008011504471730864</v>
+        <v>0.0006328430810445349</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>86.32865195850482</v>
+        <v>108.975481453784</v>
       </c>
       <c r="R30">
-        <v>86.32865195850482</v>
+        <v>980.7793330840561</v>
       </c>
       <c r="S30">
-        <v>0.0001092278436023826</v>
+        <v>8.797079510740034E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001092278436023826</v>
+        <v>9.352423297676834E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>206.8739413117835</v>
+        <v>238.922021018956</v>
       </c>
       <c r="R31">
-        <v>206.8739413117835</v>
+        <v>1433.532126113736</v>
       </c>
       <c r="S31">
-        <v>0.0002617484924689114</v>
+        <v>0.0001928705418623755</v>
       </c>
       <c r="T31">
-        <v>0.0002617484924689114</v>
+        <v>0.000136697407887624</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>1224.532319806297</v>
+        <v>1900.290056702975</v>
       </c>
       <c r="R32">
-        <v>1224.532319806297</v>
+        <v>7601.1602268119</v>
       </c>
       <c r="S32">
-        <v>0.001549346846955926</v>
+        <v>0.001534015037077341</v>
       </c>
       <c r="T32">
-        <v>0.001549346846955926</v>
+        <v>0.0007248242861222438</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>4722.373901497795</v>
+        <v>7385.367213879245</v>
       </c>
       <c r="R33">
-        <v>4722.373901497795</v>
+        <v>44312.20328327547</v>
       </c>
       <c r="S33">
-        <v>0.005975011844187127</v>
+        <v>0.005961860569899079</v>
       </c>
       <c r="T33">
-        <v>0.005975011844187127</v>
+        <v>0.004225481394012813</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>6777.548939473164</v>
+        <v>10164.7194858714</v>
       </c>
       <c r="R34">
-        <v>6777.548939473164</v>
+        <v>60988.31691522843</v>
       </c>
       <c r="S34">
-        <v>0.008575334362038965</v>
+        <v>0.008205501304392203</v>
       </c>
       <c r="T34">
-        <v>0.008575334362038965</v>
+        <v>0.005815666549686526</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>6754.70066510456</v>
+        <v>10059.06067200855</v>
       </c>
       <c r="R35">
-        <v>6754.70066510456</v>
+        <v>60354.36403205129</v>
       </c>
       <c r="S35">
-        <v>0.00854642544613793</v>
+        <v>0.008120207899475592</v>
       </c>
       <c r="T35">
-        <v>0.00854642544613793</v>
+        <v>0.005755214667043246</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>920.927386900092</v>
+        <v>1486.57062389558</v>
       </c>
       <c r="R36">
-        <v>920.927386900092</v>
+        <v>8919.423743373482</v>
       </c>
       <c r="S36">
-        <v>0.00116520888839808</v>
+        <v>0.001200038742869508</v>
       </c>
       <c r="T36">
-        <v>0.00116520888839808</v>
+        <v>0.0008505300183790561</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>2206.86728991851</v>
+        <v>3259.21439492947</v>
       </c>
       <c r="R37">
-        <v>2206.86728991851</v>
+        <v>13036.85757971788</v>
       </c>
       <c r="S37">
-        <v>0.002792252047562355</v>
+        <v>0.002631010920277741</v>
       </c>
       <c r="T37">
-        <v>0.002792252047562355</v>
+        <v>0.001243156400672228</v>
       </c>
     </row>
   </sheetData>
